--- a/Copy of Updates(1).xlsx
+++ b/Copy of Updates(1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ffb3ce7ef8fb59be/Documents/Sai Online Training 7-8Pm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="68" documentId="13_ncr:1_{D8839C0E-8FE0-40A8-8DF7-4CC298856AB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{234801D3-EF6A-4B57-BB8A-DB76C80B0820}"/>
+  <xr:revisionPtr revIDLastSave="151" documentId="13_ncr:1_{D8839C0E-8FE0-40A8-8DF7-4CC298856AB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BF3F72F6-1007-433C-AE9C-1825BA734C41}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
   <si>
     <t>Concepts</t>
   </si>
@@ -58,9 +58,6 @@
     <t>CORE JAVA INTRO,Demo</t>
   </si>
   <si>
-    <t>1 hour</t>
-  </si>
-  <si>
     <t>NOTES   shared</t>
   </si>
   <si>
@@ -82,57 +79,21 @@
     <t>…</t>
   </si>
   <si>
-    <t>50 minutes</t>
-  </si>
-  <si>
-    <t>1 :10 hours</t>
-  </si>
-  <si>
     <t xml:space="preserve">revision of concepts </t>
   </si>
   <si>
     <t>….</t>
   </si>
   <si>
-    <t>work on lab assignments</t>
-  </si>
-  <si>
     <t>https://github.com/AishwaryaGuledgudda/KTG-Assignments.git</t>
   </si>
   <si>
-    <t>String assignments shared</t>
-  </si>
-  <si>
-    <t>workon assignments</t>
-  </si>
-  <si>
-    <t>Exceptions Assignments</t>
-  </si>
-  <si>
-    <t>1 :10 mintues</t>
-  </si>
-  <si>
-    <t>1:20 minutes</t>
-  </si>
-  <si>
     <t>https://www.javamadesoeasy.com/2015/03/thread-states-thread-life-cycle-in-java.html</t>
   </si>
   <si>
-    <t>complete multi threading</t>
-  </si>
-  <si>
-    <t>1:20mintues</t>
-  </si>
-  <si>
     <t>https://github.com/afreenfquazi/Collectiontask.git</t>
   </si>
   <si>
-    <t>collections task</t>
-  </si>
-  <si>
-    <t>1:20 mintues</t>
-  </si>
-  <si>
     <t xml:space="preserve">Employee Crud OperationsJPA </t>
   </si>
   <si>
@@ -176,6 +137,30 @@
   </si>
   <si>
     <t>OOPS,Inheritance,Abstraction</t>
+  </si>
+  <si>
+    <t>PolyMorphism,Constructor</t>
+  </si>
+  <si>
+    <t>this,super,final,accessmodifiers,encapsulation</t>
+  </si>
+  <si>
+    <t>7.25 - 8.30 Pm</t>
+  </si>
+  <si>
+    <t>Exception Handling,try,catch,arrays</t>
+  </si>
+  <si>
+    <t>work on lab assignments,check arrays</t>
+  </si>
+  <si>
+    <t>String,StringBuffer,StringBuilder,Wrapperclasses</t>
+  </si>
+  <si>
+    <t>7.30-8.30Pm</t>
+  </si>
+  <si>
+    <t>complete all String methods</t>
   </si>
 </sst>
 </file>
@@ -604,7 +589,7 @@
   <dimension ref="A3:M166"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -644,13 +629,13 @@
         <v>6</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="5:9" x14ac:dyDescent="0.35">
@@ -658,16 +643,16 @@
         <v>45079</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="5:9" x14ac:dyDescent="0.35">
@@ -675,16 +660,16 @@
         <v>45082</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="5:9" x14ac:dyDescent="0.35">
@@ -692,16 +677,16 @@
         <v>45083</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="5:9" x14ac:dyDescent="0.35">
@@ -709,16 +694,16 @@
         <v>45084</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="5:9" x14ac:dyDescent="0.35">
@@ -726,10 +711,10 @@
         <v>45085</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>4</v>
@@ -743,375 +728,265 @@
         <v>45089</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="H11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="12" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E12" s="4">
-        <v>45090</v>
-      </c>
-      <c r="F12" s="3"/>
+        <v>45091</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="G12" s="3" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="H12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="13" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E13" s="4">
-        <v>45091</v>
-      </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="5" t="s">
-        <v>16</v>
+        <v>45092</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E14" s="4">
-        <v>45092</v>
-      </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="5" t="s">
-        <v>7</v>
+        <v>45098</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="I14" s="3"/>
     </row>
     <row r="15" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E15" s="4">
-        <v>45093</v>
-      </c>
-      <c r="F15" s="8"/>
+        <v>45099</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>39</v>
+      </c>
       <c r="G15" s="5" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="I15" s="3"/>
     </row>
     <row r="16" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E16" s="4">
-        <v>44972</v>
-      </c>
+      <c r="E16" s="4"/>
       <c r="F16" s="3"/>
-      <c r="G16" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
       <c r="I16" s="3"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="E17" s="6">
-        <v>44973</v>
-      </c>
+      <c r="E17" s="4"/>
       <c r="F17" s="3"/>
-      <c r="G17" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="G17" s="5"/>
+      <c r="H17" s="3"/>
       <c r="I17" s="3"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="E18" s="6">
-        <v>44976</v>
-      </c>
+      <c r="E18" s="6"/>
       <c r="F18" s="3"/>
-      <c r="G18" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>22</v>
-      </c>
+      <c r="G18" s="5"/>
+      <c r="H18" s="3"/>
       <c r="I18" s="3"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="7"/>
-      <c r="E19" s="6">
-        <v>44977</v>
-      </c>
+      <c r="E19" s="6"/>
       <c r="F19" s="3"/>
-      <c r="G19" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="G19" s="5"/>
+      <c r="H19" s="3"/>
       <c r="I19" s="3"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="E20" s="6">
-        <v>44979</v>
-      </c>
+      <c r="E20" s="6"/>
       <c r="F20" s="3"/>
-      <c r="G20" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="G20" s="5"/>
+      <c r="H20" s="3"/>
       <c r="I20" s="3"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="E21" s="6">
-        <v>44980</v>
-      </c>
+      <c r="E21" s="6"/>
       <c r="F21" s="3"/>
-      <c r="G21" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="G21" s="5"/>
+      <c r="H21" s="3"/>
       <c r="I21" s="3"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="E22" s="6">
-        <v>44982</v>
-      </c>
+      <c r="E22" s="6"/>
       <c r="F22" s="3"/>
-      <c r="G22" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
       <c r="I22" s="10" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="E23" s="6">
-        <v>44983</v>
-      </c>
+      <c r="E23" s="6"/>
       <c r="F23" s="3"/>
-      <c r="G23" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="M23" s="9" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="E24" s="6">
-        <v>44987</v>
-      </c>
+      <c r="E24" s="6"/>
       <c r="F24" s="3"/>
-      <c r="G24" s="3" t="s">
-        <v>28</v>
-      </c>
+      <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="E25" s="6">
-        <v>44979</v>
-      </c>
+      <c r="E25" s="6"/>
       <c r="F25" s="3"/>
-      <c r="G25" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>30</v>
-      </c>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
       <c r="I25" s="3"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="E26" s="6">
-        <v>44980</v>
-      </c>
+      <c r="E26" s="6"/>
       <c r="F26" s="3"/>
-      <c r="G26" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>30</v>
-      </c>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
       <c r="I26" s="3"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="E27" s="6">
-        <v>44982</v>
-      </c>
+      <c r="E27" s="6"/>
       <c r="F27" s="3"/>
-      <c r="G27" s="11">
-        <v>4.1666666666666664E-2</v>
-      </c>
+      <c r="G27" s="11"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
-      <c r="M27" t="s">
-        <v>29</v>
+      <c r="M27" s="9" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="E28" s="6">
-        <v>44983</v>
-      </c>
+      <c r="E28" s="6"/>
       <c r="F28" s="3"/>
-      <c r="G28" s="11">
-        <v>4.1666666666666664E-2</v>
-      </c>
+      <c r="G28" s="11"/>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="E29" s="6">
-        <v>44984</v>
-      </c>
+      <c r="E29" s="6"/>
       <c r="F29" s="3"/>
-      <c r="G29" s="11">
-        <v>4.1666666666666664E-2</v>
-      </c>
+      <c r="G29" s="11"/>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="E30" s="6">
-        <v>44986</v>
-      </c>
+      <c r="E30" s="6"/>
       <c r="F30" s="3"/>
-      <c r="G30" s="11">
-        <v>4.1666666666666664E-2</v>
-      </c>
+      <c r="G30" s="11"/>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="E31" s="6">
-        <v>44909</v>
-      </c>
+      <c r="E31" s="6"/>
       <c r="F31" s="3"/>
-      <c r="G31" s="11">
-        <v>4.1666666666666664E-2</v>
-      </c>
+      <c r="G31" s="11"/>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="E32" s="6">
-        <v>44914</v>
-      </c>
+      <c r="E32" s="6"/>
       <c r="F32" s="3"/>
-      <c r="G32" s="11">
-        <v>4.1666666666666664E-2</v>
-      </c>
+      <c r="G32" s="11"/>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
     </row>
     <row r="33" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E33" s="6">
-        <v>44915</v>
-      </c>
+      <c r="E33" s="6"/>
       <c r="F33" s="3"/>
-      <c r="G33" s="11">
-        <v>4.1666666666666664E-2</v>
-      </c>
+      <c r="G33" s="11"/>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
     </row>
     <row r="34" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E34" s="6">
-        <v>44916</v>
-      </c>
+      <c r="E34" s="6"/>
       <c r="F34" s="3"/>
-      <c r="G34" s="11">
-        <v>1.3888888888888888E-2</v>
-      </c>
+      <c r="G34" s="11"/>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
     </row>
     <row r="35" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E35" s="6">
-        <v>44917</v>
-      </c>
+      <c r="E35" s="6"/>
       <c r="F35" s="3"/>
-      <c r="G35" s="11">
-        <v>4.1666666666666664E-2</v>
-      </c>
+      <c r="G35" s="11"/>
       <c r="H35" s="3" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="I35" s="3"/>
     </row>
     <row r="36" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E36" s="6">
-        <v>44918</v>
-      </c>
+      <c r="E36" s="6"/>
       <c r="F36" s="3"/>
-      <c r="G36" s="11">
-        <v>4.1666666666666664E-2</v>
-      </c>
+      <c r="G36" s="11"/>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
     </row>
     <row r="37" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E37" s="6">
-        <v>44923</v>
-      </c>
+      <c r="E37" s="6"/>
       <c r="F37" s="3"/>
-      <c r="G37" s="11">
-        <v>4.1666666666666664E-2</v>
-      </c>
+      <c r="G37" s="11"/>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
     </row>
     <row r="38" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E38" s="6">
-        <v>44928</v>
-      </c>
+      <c r="E38" s="6"/>
       <c r="F38" s="3"/>
-      <c r="G38" s="11">
-        <v>4.1666666666666664E-2</v>
-      </c>
+      <c r="G38" s="11"/>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
     </row>
     <row r="39" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E39" s="6">
-        <v>44929</v>
-      </c>
+      <c r="E39" s="6"/>
       <c r="F39" s="3"/>
-      <c r="G39" s="11">
-        <v>4.1666666666666664E-2</v>
-      </c>
+      <c r="G39" s="11"/>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
     </row>
     <row r="40" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E40" s="6">
-        <v>44930</v>
-      </c>
+      <c r="E40" s="6"/>
       <c r="F40" s="3"/>
-      <c r="G40" s="11">
-        <v>4.1666666666666664E-2</v>
-      </c>
+      <c r="G40" s="11"/>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
     </row>
@@ -2002,9 +1877,10 @@
   <hyperlinks>
     <hyperlink ref="M23" r:id="rId1" xr:uid="{34C8B530-A33E-4B7A-BE11-76AFC55CF670}"/>
     <hyperlink ref="I22" r:id="rId2" xr:uid="{A641A848-C7AE-40A6-BB43-B3B71DBEAE47}"/>
+    <hyperlink ref="M27" r:id="rId3" xr:uid="{27FB2E77-2443-437F-878E-6459ADF7DDC7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 

--- a/Copy of Updates(1).xlsx
+++ b/Copy of Updates(1).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ffb3ce7ef8fb59be/Documents/Sai Online Training 7-8Pm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="151" documentId="13_ncr:1_{D8839C0E-8FE0-40A8-8DF7-4CC298856AB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BF3F72F6-1007-433C-AE9C-1825BA734C41}"/>
+  <xr:revisionPtr revIDLastSave="177" documentId="13_ncr:1_{D8839C0E-8FE0-40A8-8DF7-4CC298856AB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F5842DA7-F041-4E31-A385-4BFD1A8A13E7}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="52">
   <si>
     <t>Concepts</t>
   </si>
@@ -161,6 +161,36 @@
   </si>
   <si>
     <t>complete all String methods</t>
+  </si>
+  <si>
+    <t>7.15Pm-8.35Pm</t>
+  </si>
+  <si>
+    <t>Exception Handling throw,throws</t>
+  </si>
+  <si>
+    <t>File io,Serialization,Deserialization,Collections</t>
+  </si>
+  <si>
+    <t>7.00Pm-8.00Pm</t>
+  </si>
+  <si>
+    <t>Collections,List,Set,Map,iterator,compare,compareTo</t>
+  </si>
+  <si>
+    <t>MultiThreading,join,sleep,Synchronized</t>
+  </si>
+  <si>
+    <t>InterThread communication</t>
+  </si>
+  <si>
+    <t>java 8,Object class,Junit</t>
+  </si>
+  <si>
+    <t>7.10Pm-8.15Pm</t>
+  </si>
+  <si>
+    <t>Date and Time api,Optional class,PFI</t>
   </si>
 </sst>
 </file>
@@ -588,8 +618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:M166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="C10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -805,46 +835,88 @@
       <c r="I15" s="3"/>
     </row>
     <row r="16" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E16" s="4"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
+      <c r="E16" s="4">
+        <v>45104</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="I16" s="3"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="E17" s="4"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="3"/>
+      <c r="E17" s="4">
+        <v>45105</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="I17" s="3"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="E18" s="6"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="3"/>
+      <c r="E18" s="4">
+        <v>45106</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="I18" s="3"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="7"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="3"/>
+      <c r="E19" s="6">
+        <v>45113</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="I19" s="3"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="E20" s="6"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="5"/>
+      <c r="E20" s="6">
+        <v>45114</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>45</v>
+      </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="E21" s="6"/>
       <c r="F21" s="3"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="3"/>
+      <c r="G21" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="I21" s="3"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.35">
